--- a/data/trans_orig/P70C1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>157728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137994</v>
+        <v>137486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178845</v>
+        <v>179652</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4221165931667883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3693023207451379</v>
+        <v>0.3679448497510008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4786300204896513</v>
+        <v>0.4807901090111859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>166</v>
@@ -762,19 +762,19 @@
         <v>130126</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114870</v>
+        <v>114535</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>147159</v>
+        <v>145511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3915758320482343</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3456673694913483</v>
+        <v>0.3446578722582144</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4428307503394596</v>
+        <v>0.4378724344051801</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -783,19 +783,19 @@
         <v>287854</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>263113</v>
+        <v>263171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>313247</v>
+        <v>315871</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4077405220362872</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3726950620202039</v>
+        <v>0.3727775918835501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4437084184268205</v>
+        <v>0.4474257773147455</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>69393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54682</v>
+        <v>54309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87117</v>
+        <v>88304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1857104701008095</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1463412726716131</v>
+        <v>0.1453439496968478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2331453883250413</v>
+        <v>0.2363227402994454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -833,19 +833,19 @@
         <v>52955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42312</v>
+        <v>41971</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66256</v>
+        <v>64069</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1593537075009908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.127326785966936</v>
+        <v>0.1262981747745388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1993762509936289</v>
+        <v>0.1927980228067629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>144</v>
@@ -854,19 +854,19 @@
         <v>122348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103804</v>
+        <v>104339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144632</v>
+        <v>143305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.173303880349039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1470362133963557</v>
+        <v>0.1477945350751854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.204868588562453</v>
+        <v>0.202989035825751</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>39749</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28207</v>
+        <v>28431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53683</v>
+        <v>55174</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1063762998303378</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07548960385037871</v>
+        <v>0.07608767776564021</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1436689483987729</v>
+        <v>0.1476574379264131</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -904,19 +904,19 @@
         <v>31175</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22423</v>
+        <v>23426</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40233</v>
+        <v>40983</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09381069985712025</v>
+        <v>0.09381069985712023</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06747470658107192</v>
+        <v>0.07049477616667933</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1210698115632965</v>
+        <v>0.1233259264711391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -925,19 +925,19 @@
         <v>70923</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56239</v>
+        <v>55647</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88567</v>
+        <v>89777</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1004614518567995</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07966139866251831</v>
+        <v>0.07882259078518478</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1254536774205401</v>
+        <v>0.1271670345167637</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>56728</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42270</v>
+        <v>42814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74269</v>
+        <v>73612</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1518162531810564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1131246351307184</v>
+        <v>0.114579263996752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1987609320933452</v>
+        <v>0.1970022849844134</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -975,19 +975,19 @@
         <v>55258</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43862</v>
+        <v>44589</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66980</v>
+        <v>69592</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1662813319533608</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1319900872879463</v>
+        <v>0.1341788027529195</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2015575072649755</v>
+        <v>0.2094167742056496</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -996,19 +996,19 @@
         <v>111985</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93526</v>
+        <v>93783</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133637</v>
+        <v>134386</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1586252190916216</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1324777282075356</v>
+        <v>0.1328413001180372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1892949565479684</v>
+        <v>0.1903560940733761</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>32842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22234</v>
+        <v>21580</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45941</v>
+        <v>46045</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08789321224787965</v>
+        <v>0.08789321224787966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05950429946973954</v>
+        <v>0.05775389471613358</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1229482211497137</v>
+        <v>0.1232263531777689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -1046,19 +1046,19 @@
         <v>44201</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34131</v>
+        <v>33549</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56550</v>
+        <v>55902</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1330085558760443</v>
+        <v>0.1330085558760442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1027067827977005</v>
+        <v>0.1009561684392553</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1701699177825222</v>
+        <v>0.1682208424737613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>82</v>
@@ -1067,19 +1067,19 @@
         <v>77043</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>62492</v>
+        <v>61608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95243</v>
+        <v>95785</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1091297946158766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0885182841842745</v>
+        <v>0.08726636602354022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1349101896847471</v>
+        <v>0.1356771664893953</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>17221</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9164</v>
+        <v>8707</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29371</v>
+        <v>30001</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0460871714731283</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02452438033256936</v>
+        <v>0.0233030687450194</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07860384574608852</v>
+        <v>0.08028890988174357</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -1117,19 +1117,19 @@
         <v>18600</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13010</v>
+        <v>12165</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27212</v>
+        <v>26151</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0559698727642496</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03914910501414349</v>
+        <v>0.03660699465931133</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08188747605799261</v>
+        <v>0.07869391745119519</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>39</v>
@@ -1138,19 +1138,19 @@
         <v>35821</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>25662</v>
+        <v>25480</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49979</v>
+        <v>50670</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05073913205037606</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03634941037109454</v>
+        <v>0.0360923662781963</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07079500590144006</v>
+        <v>0.07177346798513203</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>125063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106407</v>
+        <v>106201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144794</v>
+        <v>145553</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3953529428529011</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3363784948951709</v>
+        <v>0.3357262902926074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4577272802633394</v>
+        <v>0.4601261409524126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -1263,19 +1263,19 @@
         <v>93112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79897</v>
+        <v>77903</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107787</v>
+        <v>107855</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3443040073209077</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2954388446290878</v>
+        <v>0.2880641665816003</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3985665044240805</v>
+        <v>0.3988206018418035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>228</v>
@@ -1284,19 +1284,19 @@
         <v>218175</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>195050</v>
+        <v>192538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>243031</v>
+        <v>244204</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3718249736004127</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3324136312409109</v>
+        <v>0.3281328676959721</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4141851446937265</v>
+        <v>0.4161835177338971</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>66404</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51226</v>
+        <v>51634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84009</v>
+        <v>83469</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2099176059634374</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1619385833549747</v>
+        <v>0.1632276903980917</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.265572231596103</v>
+        <v>0.2638643398013989</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>79</v>
@@ -1334,19 +1334,19 @@
         <v>53201</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42436</v>
+        <v>42937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64750</v>
+        <v>65587</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.196724089487337</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.156916087289592</v>
+        <v>0.1587677197673011</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2394268888207406</v>
+        <v>0.2425227129832421</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>140</v>
@@ -1355,19 +1355,19 @@
         <v>119605</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>101389</v>
+        <v>101504</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>139125</v>
+        <v>140257</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2038368396017697</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1727918879542154</v>
+        <v>0.1729874186479139</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2371033149024278</v>
+        <v>0.2390335770065317</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>41592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30554</v>
+        <v>30693</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54404</v>
+        <v>56000</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1314834841374067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09658704713770865</v>
+        <v>0.09702663753346115</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.171983876415039</v>
+        <v>0.1770300897839198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1405,19 +1405,19 @@
         <v>30418</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21959</v>
+        <v>21912</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40982</v>
+        <v>40787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1124757861091852</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08119969756200682</v>
+        <v>0.08102558188316232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1515400122145766</v>
+        <v>0.1508187780115064</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1426,19 +1426,19 @@
         <v>72010</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57439</v>
+        <v>57697</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91035</v>
+        <v>89847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1227230167523757</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09789089350596386</v>
+        <v>0.09832995535191172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1551468340242687</v>
+        <v>0.1531217965249854</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>48071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34225</v>
+        <v>35079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62366</v>
+        <v>63064</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1519622208469699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1081920382666573</v>
+        <v>0.1108923387784068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1971548607768444</v>
+        <v>0.1993610424016171</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1476,19 +1476,19 @@
         <v>36469</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26827</v>
+        <v>27446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47927</v>
+        <v>48425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1348543609041415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09919955655951714</v>
+        <v>0.1014865438211966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1772204597983664</v>
+        <v>0.179061620752957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>86</v>
@@ -1497,19 +1497,19 @@
         <v>84540</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69284</v>
+        <v>68298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>103071</v>
+        <v>102569</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1440773707807334</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1180773210546614</v>
+        <v>0.1163974561508986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1756590009311186</v>
+        <v>0.1748025911670844</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>30534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20044</v>
+        <v>19821</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>44603</v>
+        <v>44973</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09652650985093367</v>
+        <v>0.09652650985093365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06336479305730594</v>
+        <v>0.06265760776952801</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1410018580215815</v>
+        <v>0.1421698195258338</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -1547,19 +1547,19 @@
         <v>40090</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30875</v>
+        <v>30743</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52020</v>
+        <v>52722</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.148242761653515</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1141666105250797</v>
+        <v>0.113679374265406</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1923572486492292</v>
+        <v>0.1949517285642308</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>74</v>
@@ -1568,19 +1568,19 @@
         <v>70625</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>56047</v>
+        <v>56514</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>88816</v>
+        <v>88304</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.120362038830818</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09551856962262446</v>
+        <v>0.09631462817115745</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1513643502775264</v>
+        <v>0.1504924092576022</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>4668</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1772</v>
+        <v>1042</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13258</v>
+        <v>12172</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01475723634835129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005601936047949018</v>
+        <v>0.003295090623849762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04191194162131844</v>
+        <v>0.03848010775421833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1618,19 +1618,19 @@
         <v>17145</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10429</v>
+        <v>10635</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25042</v>
+        <v>25085</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0633989945249137</v>
+        <v>0.06339899452491368</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03856378840327201</v>
+        <v>0.03932630540979314</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0925978789054971</v>
+        <v>0.09275890424934594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1639,19 +1639,19 @@
         <v>21814</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14442</v>
+        <v>14871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32713</v>
+        <v>31352</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0371757604338905</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02461333611129488</v>
+        <v>0.02534427868558354</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05575080959865307</v>
+        <v>0.05343185486938292</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>78304</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62390</v>
+        <v>62559</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94608</v>
+        <v>96505</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2904451676135154</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2314165965930575</v>
+        <v>0.2320450870075415</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3509218736158783</v>
+        <v>0.3579590930782734</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -1764,19 +1764,19 @@
         <v>20222</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14244</v>
+        <v>13809</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28009</v>
+        <v>27623</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2475388868300609</v>
+        <v>0.2475388868300608</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1743606826900354</v>
+        <v>0.1690352813072886</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3428655388823444</v>
+        <v>0.3381400030434538</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>94</v>
@@ -1785,19 +1785,19 @@
         <v>98525</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82199</v>
+        <v>80448</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>117808</v>
+        <v>117150</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2804674722491174</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2339905165852359</v>
+        <v>0.2290063044109882</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3353578925737325</v>
+        <v>0.333486408945079</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>56947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43854</v>
+        <v>43231</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71178</v>
+        <v>73814</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2112283900556301</v>
+        <v>0.2112283900556302</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.162664155033833</v>
+        <v>0.1603511608238014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.264013416374058</v>
+        <v>0.2737917139883383</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1835,19 +1835,19 @@
         <v>20992</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14841</v>
+        <v>14856</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28077</v>
+        <v>28754</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2569707077349744</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1816699689866252</v>
+        <v>0.1818504688844214</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3436973823683547</v>
+        <v>0.3519803965026113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>84</v>
@@ -1856,19 +1856,19 @@
         <v>77939</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63012</v>
+        <v>63154</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93672</v>
+        <v>94278</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2218655952091006</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1793743067789639</v>
+        <v>0.1797765152849613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2666513581629341</v>
+        <v>0.2683772287038386</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>26835</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17980</v>
+        <v>18445</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37848</v>
+        <v>38625</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09953610767561454</v>
+        <v>0.09953610767561458</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06669232354111035</v>
+        <v>0.06841540448266689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1403855832600176</v>
+        <v>0.1432674671109707</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1906,19 +1906,19 @@
         <v>12982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7325</v>
+        <v>7740</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22240</v>
+        <v>21615</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1589137867522435</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08967157341051119</v>
+        <v>0.09475329670066512</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.272241257062544</v>
+        <v>0.2645960946841125</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -1927,19 +1927,19 @@
         <v>39817</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28393</v>
+        <v>28638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54035</v>
+        <v>52649</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1133441652013102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.080824897205899</v>
+        <v>0.08152356235993059</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1538177797593505</v>
+        <v>0.1498738236488477</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>53483</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38605</v>
+        <v>38500</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>69261</v>
+        <v>72089</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1983794175246931</v>
+        <v>0.1983794175246932</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1431947520485509</v>
+        <v>0.1428055921268886</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2569034644337051</v>
+        <v>0.2673940106657939</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1977,19 +1977,19 @@
         <v>5684</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2716</v>
+        <v>2527</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11235</v>
+        <v>10536</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06957865567526267</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03325185847980275</v>
+        <v>0.03093786897547899</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.137535370293829</v>
+        <v>0.1289785389000044</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>50</v>
@@ -1998,19 +1998,19 @@
         <v>59167</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44940</v>
+        <v>45169</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>78218</v>
+        <v>78285</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1684272813579163</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1279287721383925</v>
+        <v>0.1285792252462409</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2226584973282143</v>
+        <v>0.2228496898485004</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>31169</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22782</v>
+        <v>21987</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43761</v>
+        <v>42734</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1156110036535354</v>
+        <v>0.1156110036535355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08450396779907826</v>
+        <v>0.08155498147285581</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1623177513657886</v>
+        <v>0.1585083783053106</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2048,19 +2048,19 @@
         <v>13752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9048</v>
+        <v>8487</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20332</v>
+        <v>21036</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1683458301915997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1107632514863676</v>
+        <v>0.1038906056315296</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2488919647291855</v>
+        <v>0.2575042905472774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2069,19 +2069,19 @@
         <v>44921</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34437</v>
+        <v>33809</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58489</v>
+        <v>58442</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1278742906288558</v>
+        <v>0.1278742906288557</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0980301585186933</v>
+        <v>0.09624187940051018</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1664983394335908</v>
+        <v>0.1663652884429801</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>22862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14519</v>
+        <v>14657</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36992</v>
+        <v>34356</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08479991347701141</v>
+        <v>0.08479991347701143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05385311817417204</v>
+        <v>0.05436517441393016</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.137210466835624</v>
+        <v>0.1274319996191892</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2119,19 +2119,19 @@
         <v>8059</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4443</v>
+        <v>4219</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14111</v>
+        <v>14132</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.09865213281585875</v>
+        <v>0.09865213281585876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05438736671867661</v>
+        <v>0.05164055509068423</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1727321856047136</v>
+        <v>0.1729984614912772</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2140,19 +2140,19 @@
         <v>30921</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20979</v>
+        <v>21587</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42853</v>
+        <v>43804</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.08802119535369969</v>
+        <v>0.0880211953536997</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05971855356037038</v>
+        <v>0.06145151035906205</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1219881812633721</v>
+        <v>0.124694213928126</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>145404</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>122363</v>
+        <v>123024</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>170301</v>
+        <v>168156</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2364866370302399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1990126835939701</v>
+        <v>0.2000879715453854</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2769799254055848</v>
+        <v>0.2734909238319438</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>122</v>
@@ -2265,19 +2265,19 @@
         <v>94848</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>78827</v>
+        <v>79783</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>111467</v>
+        <v>112341</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2005799314807893</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1667000335817729</v>
+        <v>0.1687223139319163</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.235724387925695</v>
+        <v>0.2375745981353299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>246</v>
@@ -2286,19 +2286,19 @@
         <v>240251</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>211712</v>
+        <v>213633</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>271050</v>
+        <v>269536</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.220876772474987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1946387601532923</v>
+        <v>0.1964050532468819</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2491914321708758</v>
+        <v>0.2477996197820588</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>103289</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>83038</v>
+        <v>83949</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>126417</v>
+        <v>124758</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1679910084802274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1350544055087621</v>
+        <v>0.1365356885845224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2056054924613186</v>
+        <v>0.2029079177051778</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -2336,19 +2336,19 @@
         <v>94385</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78814</v>
+        <v>79052</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>111312</v>
+        <v>110680</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1996019517798376</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1666732046944746</v>
+        <v>0.1671750777346201</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2353965713216849</v>
+        <v>0.2340602254723096</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>230</v>
@@ -2357,19 +2357,19 @@
         <v>197674</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>173828</v>
+        <v>170608</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>226601</v>
+        <v>222771</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1817333592701411</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1598098709623509</v>
+        <v>0.1568492340767247</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2083269920046906</v>
+        <v>0.204805818013389</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>81907</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>64489</v>
+        <v>65917</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>100936</v>
+        <v>102018</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1332145862974106</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1048853572601024</v>
+        <v>0.1072084789928245</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1641632672003001</v>
+        <v>0.165924067683309</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>78</v>
@@ -2407,19 +2407,19 @@
         <v>55471</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44299</v>
+        <v>44260</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>69245</v>
+        <v>69355</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1173080922824783</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09368125446455298</v>
+        <v>0.09359863415375617</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.146435951483709</v>
+        <v>0.1466696468325165</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>156</v>
@@ -2428,19 +2428,19 @@
         <v>137378</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>116362</v>
+        <v>115546</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>160690</v>
+        <v>159153</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1262994930488785</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1069783010123878</v>
+        <v>0.1062280306856805</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1477316186266842</v>
+        <v>0.1463182782892579</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>131448</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>110236</v>
+        <v>109801</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>155518</v>
+        <v>154793</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2137886110787615</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1792891032701264</v>
+        <v>0.1785814335715016</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.252937275664388</v>
+        <v>0.2517576794057435</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>113</v>
@@ -2478,19 +2478,19 @@
         <v>85634</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>71497</v>
+        <v>72650</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101874</v>
+        <v>102434</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1810945199902134</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.151198742626158</v>
+        <v>0.1536369427160951</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2154386068989597</v>
+        <v>0.2166227210398867</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>225</v>
@@ -2499,19 +2499,19 @@
         <v>217082</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>189749</v>
+        <v>188888</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>245569</v>
+        <v>246454</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1995753791534187</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.174447351273925</v>
+        <v>0.173655848828331</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2257653976230268</v>
+        <v>0.2265791296407369</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>107642</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>88367</v>
+        <v>85755</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>131763</v>
+        <v>132904</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1750706877269326</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1437213176457542</v>
+        <v>0.1394725819754916</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.214300514856699</v>
+        <v>0.2161571620247515</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>111</v>
@@ -2549,19 +2549,19 @@
         <v>94498</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>77774</v>
+        <v>78855</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111221</v>
+        <v>112134</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1998393660471521</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1644722266827279</v>
+        <v>0.1667586653989907</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2352053952213199</v>
+        <v>0.2371363855009134</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -2570,19 +2570,19 @@
         <v>202140</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>174596</v>
+        <v>177677</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>232662</v>
+        <v>235896</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1858384735172157</v>
+        <v>0.1858384735172156</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.160515571896253</v>
+        <v>0.1633489922065064</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2138991797574732</v>
+        <v>0.2168727525139326</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>45160</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32303</v>
+        <v>31557</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62586</v>
+        <v>61907</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07344846938642814</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05253771190866801</v>
+        <v>0.05132482359201948</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1017903890966772</v>
+        <v>0.1006863680757028</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>62</v>
@@ -2620,19 +2620,19 @@
         <v>48032</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>37793</v>
+        <v>37184</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61097</v>
+        <v>61281</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1015761384195294</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07992391190849743</v>
+        <v>0.07863410699874972</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1292042656935867</v>
+        <v>0.1295943007087182</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>99</v>
@@ -2641,19 +2641,19 @@
         <v>93192</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>76369</v>
+        <v>75264</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>111591</v>
+        <v>112745</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08567652253535894</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07021020690424003</v>
+        <v>0.06919463411681129</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1025916363451582</v>
+        <v>0.103652901347898</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>86785</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>68336</v>
+        <v>67540</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>106725</v>
+        <v>111080</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2835374078253019</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2232600917474876</v>
+        <v>0.2206602125312886</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3486809492235859</v>
+        <v>0.3629104596708899</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>77</v>
@@ -2766,19 +2766,19 @@
         <v>58142</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46437</v>
+        <v>46491</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>73882</v>
+        <v>71972</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1889500607043113</v>
+        <v>0.1889500607043112</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1509130058880238</v>
+        <v>0.1510886204405365</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2401022559818091</v>
+        <v>0.2338944263239142</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>142</v>
@@ -2787,19 +2787,19 @@
         <v>144927</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>123216</v>
+        <v>124019</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>166871</v>
+        <v>171214</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2361182811824663</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2007458627228391</v>
+        <v>0.2020545774072675</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2718692914996975</v>
+        <v>0.2789455222611094</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>55444</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>40564</v>
+        <v>41654</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>72471</v>
+        <v>72891</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1811429806431858</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1325254266823531</v>
+        <v>0.1360883812912052</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2367707472855168</v>
+        <v>0.2381421746892056</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>67</v>
@@ -2837,19 +2837,19 @@
         <v>44074</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>34997</v>
+        <v>34413</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>55307</v>
+        <v>55406</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1432313353058084</v>
+        <v>0.1432313353058083</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1137345825896633</v>
+        <v>0.1118355131389863</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1797371287318641</v>
+        <v>0.1800597556231047</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>114</v>
@@ -2858,19 +2858,19 @@
         <v>99518</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>81330</v>
+        <v>83469</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>119503</v>
+        <v>120984</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1621368750042169</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1325045853442427</v>
+        <v>0.1359899529294028</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1946958100613514</v>
+        <v>0.1971089620645258</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>29206</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19193</v>
+        <v>19738</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>42880</v>
+        <v>41907</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09542017129461744</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06270709725606785</v>
+        <v>0.06448631978077057</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1400939758456507</v>
+        <v>0.1369133416381588</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>64</v>
@@ -2908,19 +2908,19 @@
         <v>44045</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>34292</v>
+        <v>33510</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>57038</v>
+        <v>57511</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1431370908582134</v>
+        <v>0.1431370908582133</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1114436984011491</v>
+        <v>0.1089004503358744</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1853635423257107</v>
+        <v>0.1868992813449217</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>92</v>
@@ -2929,19 +2929,19 @@
         <v>73251</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>58935</v>
+        <v>58881</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>91911</v>
+        <v>89839</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1193419189771891</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09601728387876074</v>
+        <v>0.09593066315697085</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1497435617991685</v>
+        <v>0.14636810075933</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>45383</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>32710</v>
+        <v>33198</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>60535</v>
+        <v>60855</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1482712371877153</v>
+        <v>0.1482712371877152</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1068668270211443</v>
+        <v>0.1084600880162421</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1977758055969391</v>
+        <v>0.1988215442056636</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>80</v>
@@ -2979,19 +2979,19 @@
         <v>58773</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>46727</v>
+        <v>46765</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>70885</v>
+        <v>71268</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1909997228604952</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1518537270465938</v>
+        <v>0.1519780706847073</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2303629142034472</v>
+        <v>0.2316077410674433</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>121</v>
@@ -3000,19 +3000,19 @@
         <v>104156</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>86957</v>
+        <v>85583</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>123723</v>
+        <v>123210</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1696921516656571</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1416718538599226</v>
+        <v>0.1394332322878027</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2015711374022359</v>
+        <v>0.2007361491412152</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>61144</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>46097</v>
+        <v>45169</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>82141</v>
+        <v>80352</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1997631604734771</v>
+        <v>0.1997631604734772</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1506025418507992</v>
+        <v>0.1475704926737131</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2683641178690582</v>
+        <v>0.2625186280995887</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>71</v>
@@ -3050,19 +3050,19 @@
         <v>54258</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>42888</v>
+        <v>43430</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>66427</v>
+        <v>66850</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1763271017082331</v>
+        <v>0.176327101708233</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.139378695978357</v>
+        <v>0.1411392725811091</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2158745841609809</v>
+        <v>0.2172493297042482</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>117</v>
@@ -3071,19 +3071,19 @@
         <v>115401</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>95995</v>
+        <v>95564</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>135619</v>
+        <v>141334</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1880140473793493</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1563970797710395</v>
+        <v>0.1556952327320937</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2209528044586959</v>
+        <v>0.2302648492803775</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>28118</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17788</v>
+        <v>17904</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39829</v>
+        <v>41011</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.09186504257570244</v>
+        <v>0.09186504257570245</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05811636582025613</v>
+        <v>0.05849286008344015</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.130124691145881</v>
+        <v>0.1339879020581681</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -3121,19 +3121,19 @@
         <v>48420</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>38033</v>
+        <v>36940</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>61620</v>
+        <v>60638</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1573546885629388</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1236005979432541</v>
+        <v>0.1200468915125346</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2002526950112279</v>
+        <v>0.1970609147543914</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>87</v>
@@ -3142,19 +3142,19 @@
         <v>76538</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>60896</v>
+        <v>60815</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>92740</v>
+        <v>92931</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1246967257911214</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09921280916681634</v>
+        <v>0.09908018538751509</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1510944943471082</v>
+        <v>0.1514052043701709</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>593284</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>546862</v>
+        <v>548687</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>638124</v>
+        <v>635779</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3154889239362869</v>
+        <v>0.3154889239362868</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2908033561487471</v>
+        <v>0.2917736042878853</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3393335737393582</v>
+        <v>0.3380863231982881</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>518</v>
@@ -3267,19 +3267,19 @@
         <v>396450</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>365027</v>
+        <v>366717</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>429718</v>
+        <v>426857</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2706106825378866</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2491620960949496</v>
+        <v>0.2503154756505746</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2933187625113666</v>
+        <v>0.2913662892502221</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1020</v>
@@ -3288,19 +3288,19 @@
         <v>989733</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>936185</v>
+        <v>932861</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1047444</v>
+        <v>1043613</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2958366546267802</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2798306779804614</v>
+        <v>0.2788371778096866</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.313086776100126</v>
+        <v>0.3119416929985911</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>351477</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>313894</v>
+        <v>316859</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>391859</v>
+        <v>388607</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1869039002314399</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1669186780182816</v>
+        <v>0.1684954448078379</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2083779284392536</v>
+        <v>0.2066485829039277</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>394</v>
@@ -3338,19 +3338,19 @@
         <v>265608</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>241458</v>
+        <v>241639</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>293772</v>
+        <v>291742</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.181300063644966</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1648158919947867</v>
+        <v>0.1649390335642207</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2005246718816064</v>
+        <v>0.1991385764328917</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>712</v>
@@ -3359,19 +3359,19 @@
         <v>617085</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>577229</v>
+        <v>570657</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>665423</v>
+        <v>659593</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.1844499692766547</v>
+        <v>0.1844499692766548</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.172536829441273</v>
+        <v>0.1705725184588289</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1988984016391471</v>
+        <v>0.1971558821611957</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>219289</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>187525</v>
+        <v>191527</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>250977</v>
+        <v>254451</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1166107752801201</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09971986726420047</v>
+        <v>0.101848038330851</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1334611698666067</v>
+        <v>0.1353088918562884</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>240</v>
@@ -3409,19 +3409,19 @@
         <v>174090</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>153436</v>
+        <v>152972</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>198494</v>
+        <v>198517</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1188311403827742</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1047328057955719</v>
+        <v>0.1044161758151421</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1354892769591857</v>
+        <v>0.1355047810711328</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>445</v>
@@ -3430,19 +3430,19 @@
         <v>393379</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>358951</v>
+        <v>357375</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>429305</v>
+        <v>431484</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1175830774827716</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1072923284384236</v>
+        <v>0.1068214634721266</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1283216816423738</v>
+        <v>0.128973025684247</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>335112</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>299333</v>
+        <v>297585</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>371746</v>
+        <v>370345</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1782015647546237</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1591757442682867</v>
+        <v>0.1582458889284244</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1976825550006635</v>
+        <v>0.1969372510798212</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>317</v>
@@ -3480,19 +3480,19 @@
         <v>241817</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>220155</v>
+        <v>216523</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>269125</v>
+        <v>266349</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1650608888364931</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1502744551038765</v>
+        <v>0.147795518640138</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1837009147954982</v>
+        <v>0.1818061422211125</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>601</v>
@@ -3501,19 +3501,19 @@
         <v>576929</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>533171</v>
+        <v>532489</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>625207</v>
+        <v>620935</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1724472371783819</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1593675980603721</v>
+        <v>0.1591637969083265</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1868776502078917</v>
+        <v>0.1856009050477565</v>
       </c>
     </row>
     <row r="43">
@@ -3530,19 +3530,19 @@
         <v>263331</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>232378</v>
+        <v>230630</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>299525</v>
+        <v>300654</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1400308769731822</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.123571122895115</v>
+        <v>0.1226414844622306</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1592775242138765</v>
+        <v>0.1598779869059595</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>306</v>
@@ -3551,19 +3551,19 @@
         <v>246798</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>222670</v>
+        <v>221377</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>273961</v>
+        <v>277052</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1684608514899533</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1519910608026191</v>
+        <v>0.15110844032135</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1870016787275753</v>
+        <v>0.1891116728600597</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>517</v>
@@ -3572,19 +3572,19 @@
         <v>510129</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>465881</v>
+        <v>468665</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>554022</v>
+        <v>555911</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1524804181819407</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1392543987988763</v>
+        <v>0.1400866252871197</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.165600085209429</v>
+        <v>0.1661648952718519</v>
       </c>
     </row>
     <row r="44">
@@ -3601,19 +3601,19 @@
         <v>118029</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>96208</v>
+        <v>96088</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>142948</v>
+        <v>143074</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.06276395882434725</v>
+        <v>0.06276395882434724</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05115999965173194</v>
+        <v>0.051096327331984</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07601512116110647</v>
+        <v>0.07608191974620392</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>184</v>
@@ -3622,19 +3622,19 @@
         <v>140256</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>120911</v>
+        <v>123267</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>159588</v>
+        <v>161224</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.09573637310792686</v>
+        <v>0.09573637310792688</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08253189174791992</v>
+        <v>0.08414025161190869</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.108932157921564</v>
+        <v>0.1100493075940998</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>282</v>
@@ -3643,19 +3643,19 @@
         <v>258285</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>226738</v>
+        <v>229552</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>291836</v>
+        <v>289167</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.07720264325347082</v>
+        <v>0.07720264325347083</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06777320318488264</v>
+        <v>0.06861425472245757</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08723135552898087</v>
+        <v>0.0864335917718989</v>
       </c>
     </row>
     <row r="45">
